--- a/rubric-soex-casusopdracht.xlsx
+++ b/rubric-soex-casusopdracht.xlsx
@@ -549,60 +549,60 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,15 +610,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,31 +626,31 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,19 +658,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,19 +678,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,20 +698,24 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -905,10 +909,10 @@
   </sheetPr>
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="114" zoomScaleNormal="114" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1360,7 +1364,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="30.66"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,7 +1373,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="41" t="s">
         <v>90</v>
       </c>
     </row>
